--- a/BackTest/2020-01-16 BackTest EOS.xlsx
+++ b/BackTest/2020-01-16 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,11 +649,17 @@
         <v>-54986.62183526</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3715</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +688,17 @@
         <v>-60131.83363525999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3702</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +727,17 @@
         <v>-48894.12743525999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3685</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +766,17 @@
         <v>-60070.45623525999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3688</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +805,17 @@
         <v>-98638.25133525999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3658</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +844,17 @@
         <v>-86030.94282778999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3647</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +883,17 @@
         <v>-82699.12682778998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3653</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +922,17 @@
         <v>-80930.44472778997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3670</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +961,17 @@
         <v>-79823.44972778998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3676</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1000,17 @@
         <v>-69605.54929108998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3688</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1039,17 @@
         <v>-64197.20379108997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3705</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1078,17 @@
         <v>-60691.88249108997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3719</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1117,17 @@
         <v>-67065.70699108997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3722</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1156,17 @@
         <v>-68504.57479108998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3717</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1195,17 @@
         <v>-59747.05369108998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3708</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,7 +1234,7 @@
         <v>-61608.15256669998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3718</v>
@@ -1152,7 +1242,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1183,7 +1273,7 @@
         <v>-60565.93066669998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3711</v>
@@ -1222,7 +1312,7 @@
         <v>-54166.55606669998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3719</v>
@@ -1261,7 +1351,7 @@
         <v>-55421.32116669998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3720</v>
@@ -1300,9 +1390,11 @@
         <v>-55411.32116669998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3715</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1337,9 +1429,11 @@
         <v>-66150.08936669998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3716</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1374,9 +1468,11 @@
         <v>-85905.13436669997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3699</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1411,9 +1507,11 @@
         <v>-76198.92946669998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3664</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1448,7 +1546,7 @@
         <v>-71218.94466669997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3671</v>
@@ -1487,9 +1585,11 @@
         <v>-70838.96246669997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3686</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1524,9 +1624,11 @@
         <v>-65422.28226669997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3689</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1561,9 +1663,11 @@
         <v>-75718.55826669997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3697</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1598,9 +1702,11 @@
         <v>-77295.04496669996</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3688</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1635,7 +1741,7 @@
         <v>-82057.88896669996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3684</v>
@@ -1674,7 +1780,7 @@
         <v>-89497.53656669996</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3672</v>
@@ -1713,7 +1819,7 @@
         <v>-83437.19326669996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3660</v>
@@ -1752,7 +1858,7 @@
         <v>-79525.47706669997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3669</v>
@@ -1791,7 +1897,7 @@
         <v>-84293.50916669997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3682</v>
@@ -1830,7 +1936,7 @@
         <v>-80918.20216669996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3679</v>
@@ -1869,7 +1975,7 @@
         <v>-82021.95536669997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3682</v>
@@ -1908,7 +2014,7 @@
         <v>-81199.14756669998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3675</v>
@@ -1947,7 +2053,7 @@
         <v>-76867.89556669997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3682</v>
@@ -1986,7 +2092,7 @@
         <v>-81067.90806669997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3693</v>
@@ -2025,7 +2131,7 @@
         <v>-77153.93886669996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3681</v>
@@ -2064,7 +2170,7 @@
         <v>-74762.40336669996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3699</v>
@@ -2103,7 +2209,7 @@
         <v>-66518.08666669996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3709</v>
@@ -2142,7 +2248,7 @@
         <v>-62633.82006885996</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3714</v>
@@ -2181,9 +2287,11 @@
         <v>-59000.26766669996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3719</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2218,9 +2326,11 @@
         <v>-62443.54306669996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3720</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2255,9 +2365,11 @@
         <v>-63622.33576669996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3719</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2292,9 +2404,11 @@
         <v>-60581.68465919996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3712</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2329,9 +2443,11 @@
         <v>-56582.31616669996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3730</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2366,9 +2482,11 @@
         <v>-54341.98436669996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3734</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2403,9 +2521,11 @@
         <v>-52742.81396669996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3743</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2440,9 +2560,11 @@
         <v>-50062.93362706996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3750</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2477,9 +2599,11 @@
         <v>-45279.77542706996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3756</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2514,9 +2638,11 @@
         <v>-36768.27022706996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3762</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -5252,7 +5378,7 @@
         <v>949196.8779095401</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5289,7 +5415,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5326,7 +5452,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5363,7 +5489,7 @@
         <v>981943.2742082401</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5400,7 +5526,7 @@
         <v>971879.2952352001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5437,7 +5563,7 @@
         <v>982578.4715252301</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5474,7 +5600,7 @@
         <v>1009425.64813826</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5548,7 +5674,7 @@
         <v>997099.8807542501</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6288,18 +6414,16 @@
         <v>873496.5920465599</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -6325,15 +6449,11 @@
         <v>939282.6369887199</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6362,15 +6482,11 @@
         <v>910083.10118872</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6399,15 +6515,11 @@
         <v>876475.5992506599</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6436,15 +6548,11 @@
         <v>896407.2704506599</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6473,15 +6581,11 @@
         <v>877706.9431506599</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6510,15 +6614,11 @@
         <v>858080.8194506599</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6547,15 +6647,11 @@
         <v>847576.4166723</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6584,15 +6680,11 @@
         <v>859819.0595722999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6621,15 +6713,11 @@
         <v>864719.9520722999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6658,15 +6746,11 @@
         <v>849051.62556834</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6695,15 +6779,11 @@
         <v>836169.6166646599</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6732,15 +6812,11 @@
         <v>829325.70366466</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6773,11 +6849,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +6882,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6847,11 +6915,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +6948,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6921,11 +6981,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6958,11 +7014,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6995,11 +7047,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7032,11 +7080,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +7113,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7106,11 +7146,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7143,11 +7179,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7180,11 +7212,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +7245,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +7278,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7291,11 +7311,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +7344,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +7377,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7402,11 +7410,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +7443,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7476,11 +7476,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7509,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7550,11 +7542,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7587,11 +7575,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7624,11 +7608,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7641,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7698,11 +7674,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +7707,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7772,11 +7740,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +7773,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +7806,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7883,11 +7839,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +7872,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7957,11 +7905,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7994,11 +7938,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8031,11 +7971,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8068,11 +8004,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8105,11 +8037,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +8070,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8179,11 +8103,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +8136,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8253,11 +8169,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8290,11 +8202,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +8235,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +8268,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8401,11 +8301,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +8334,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8475,11 +8367,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8512,11 +8400,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8549,11 +8433,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +8466,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8623,11 +8499,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +8532,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +8565,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8598,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +8631,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8808,11 +8664,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +8697,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8730,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8763,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8796,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8993,11 +8829,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9030,11 +8862,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +8895,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +8928,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +8961,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9178,11 +8994,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9215,11 +9027,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +9060,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9289,11 +9093,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9326,11 +9126,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9363,11 +9159,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9400,11 +9192,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9437,11 +9225,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9474,11 +9258,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9511,11 +9291,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9548,11 +9324,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9585,11 +9357,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9622,11 +9390,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9659,11 +9423,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9696,11 +9456,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9733,11 +9489,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9770,11 +9522,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9807,11 +9555,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9844,11 +9588,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9881,11 +9621,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9918,11 +9654,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9687,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9992,11 +9720,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10029,11 +9753,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10066,11 +9786,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10103,11 +9819,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10140,11 +9852,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +9885,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10214,11 +9918,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10251,11 +9951,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10288,11 +9984,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +10017,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +10050,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10399,11 +10083,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +10116,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10473,11 +10149,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +10182,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10547,11 +10215,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +10248,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10621,11 +10281,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10658,11 +10314,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10695,11 +10347,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10732,11 +10380,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10769,11 +10413,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10806,11 +10446,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +10479,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10880,11 +10512,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10917,11 +10545,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10954,11 +10578,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10991,11 +10611,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11028,11 +10644,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11065,11 +10677,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11102,11 +10710,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11139,11 +10743,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +10776,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11213,11 +10809,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11250,11 +10842,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11287,11 +10875,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11324,11 +10908,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +10941,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11398,11 +10974,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11435,11 +11007,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +11040,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11509,11 +11073,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11546,11 +11106,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11583,11 +11139,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11620,11 +11172,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11657,11 +11205,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11694,11 +11238,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11731,11 +11271,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11768,11 +11304,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11805,11 +11337,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11842,11 +11370,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +11403,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11916,11 +11436,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +11469,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11990,11 +11502,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12027,11 +11535,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12064,11 +11568,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12101,11 +11601,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12138,11 +11634,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12175,11 +11667,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12212,11 +11700,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12249,11 +11733,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12286,11 +11766,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12323,11 +11799,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12360,11 +11832,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +11865,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +11898,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12471,11 +11931,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12508,11 +11964,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12545,11 +11997,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +12030,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +12063,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12096,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12129,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12730,11 +12162,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12767,11 +12195,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12804,11 +12228,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12841,11 +12261,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +12294,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12915,11 +12327,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12952,11 +12360,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +12393,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +12426,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +12459,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +12492,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13137,11 +12525,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +12558,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13207,16 +12587,14 @@
         <v>834759.8736415104</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -13242,7 +12620,7 @@
         <v>842473.2507460103</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13275,7 +12653,7 @@
         <v>839878.0026180303</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13308,7 +12686,7 @@
         <v>839878.0026180303</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13341,7 +12719,7 @@
         <v>838021.4091180303</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13374,7 +12752,7 @@
         <v>839810.2461180304</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13407,7 +12785,7 @@
         <v>840196.6586180304</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13440,7 +12818,7 @@
         <v>839215.1848180303</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13506,7 +12884,7 @@
         <v>837230.2148135303</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13539,7 +12917,7 @@
         <v>839455.0813714804</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13572,7 +12950,7 @@
         <v>840205.0813714804</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13605,7 +12983,7 @@
         <v>843356.8396714804</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13638,7 +13016,7 @@
         <v>837563.3601714803</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13671,7 +13049,7 @@
         <v>835785.2807714803</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13704,7 +13082,7 @@
         <v>828978.5558714803</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13737,7 +13115,7 @@
         <v>829738.5558714803</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13770,7 +13148,7 @@
         <v>835379.6784714803</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13803,7 +13181,7 @@
         <v>833928.1744714803</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13836,7 +13214,7 @@
         <v>830359.9195714802</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13869,7 +13247,7 @@
         <v>830359.9195714802</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13902,7 +13280,7 @@
         <v>832367.0070714803</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13935,7 +13313,7 @@
         <v>830477.8608809703</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -16938,7 +16316,7 @@
         <v>994028.2609508104</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16971,7 +16349,7 @@
         <v>1004396.49175081</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17004,7 +16382,7 @@
         <v>984459.3058437504</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17037,7 +16415,7 @@
         <v>967363.5706795903</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17070,7 +16448,7 @@
         <v>990352.2422795903</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17367,7 +16745,7 @@
         <v>962106.3102550101</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17433,7 +16811,7 @@
         <v>966480.9634550101</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17466,7 +16844,7 @@
         <v>966480.9634550101</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17499,7 +16877,7 @@
         <v>991669.0413217701</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17532,7 +16910,7 @@
         <v>982310.3807406001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17565,7 +16943,7 @@
         <v>973891.0492406001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17598,7 +16976,7 @@
         <v>983541.2697992001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17631,7 +17009,7 @@
         <v>968590.9817992002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17664,7 +17042,7 @@
         <v>959632.4843606402</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17697,7 +17075,7 @@
         <v>955541.6902606401</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17730,7 +17108,7 @@
         <v>921396.4044606402</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17763,7 +17141,7 @@
         <v>949175.4366606402</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17796,7 +17174,7 @@
         <v>916902.0264606401</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17829,7 +17207,7 @@
         <v>924153.8769606401</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17862,7 +17240,7 @@
         <v>919208.5748606401</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17961,7 +17339,7 @@
         <v>922734.2107606401</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17994,7 +17372,7 @@
         <v>918017.4088687501</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18093,7 +17471,7 @@
         <v>921987.6824687502</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18126,7 +17504,7 @@
         <v>910246.9294068802</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18159,7 +17537,7 @@
         <v>914440.8685526402</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18456,7 +17834,7 @@
         <v>1000324.59040411</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18489,7 +17867,7 @@
         <v>1013954.32082762</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18753,7 +18131,7 @@
         <v>1050303.79937215</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18786,7 +18164,7 @@
         <v>1040314.57291978</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18819,7 +18197,7 @@
         <v>1059523.85292242</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18852,7 +18230,7 @@
         <v>1053528.21772242</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18885,7 +18263,7 @@
         <v>1088688.33440097</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18918,7 +18296,7 @@
         <v>1066198.63700097</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18951,7 +18329,7 @@
         <v>1077432.76420097</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18984,7 +18362,7 @@
         <v>1081009.499334</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19017,7 +18395,7 @@
         <v>1106707.36891648</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19050,7 +18428,7 @@
         <v>1115243.18521648</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19083,7 +18461,7 @@
         <v>1129006.78196824</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19116,7 +18494,7 @@
         <v>1121862.01106824</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19149,7 +18527,7 @@
         <v>1117057.64066824</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19182,7 +18560,7 @@
         <v>1111157.61353589</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19215,7 +18593,7 @@
         <v>1103486.33253589</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19248,7 +18626,7 @@
         <v>1132563.88216391</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19281,7 +18659,7 @@
         <v>1127138.16997837</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19314,7 +18692,7 @@
         <v>1134676.73889521</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19347,7 +18725,7 @@
         <v>1154681.87446433</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19380,7 +18758,7 @@
         <v>1143107.116864331</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19413,7 +18791,7 @@
         <v>1153369.616864331</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19446,7 +18824,7 @@
         <v>1159317.705837161</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19479,7 +18857,7 @@
         <v>1157170.799837161</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19974,7 +19352,7 @@
         <v>987875.1660809006</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20007,7 +19385,7 @@
         <v>1017798.910880901</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20040,7 +19418,7 @@
         <v>1017798.910880901</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20073,7 +19451,7 @@
         <v>1023936.246523271</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20106,7 +19484,7 @@
         <v>1034873.246052591</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20139,7 +19517,7 @@
         <v>1019188.708527931</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20172,7 +19550,7 @@
         <v>1009314.675633241</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20205,7 +19583,7 @@
         <v>1025550.531033241</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20238,7 +19616,7 @@
         <v>1040882.990133241</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20271,7 +19649,7 @@
         <v>1061315.575898941</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20304,7 +19682,7 @@
         <v>1061315.575898941</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20337,7 +19715,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20370,7 +19748,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20403,7 +19781,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21096,7 +20474,7 @@
         <v>1104888.41659308</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21129,7 +20507,7 @@
         <v>1104888.41659308</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21360,7 +20738,7 @@
         <v>1095682.15806308</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21393,7 +20771,7 @@
         <v>1091667.47786308</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21426,7 +20804,7 @@
         <v>1099390.41036308</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21459,7 +20837,7 @@
         <v>1088373.80156308</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21492,7 +20870,7 @@
         <v>1088373.80156308</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21525,7 +20903,7 @@
         <v>1088374.80156308</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21558,7 +20936,7 @@
         <v>1091880.44270468</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21591,7 +20969,7 @@
         <v>1096467.75160468</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21624,7 +21002,7 @@
         <v>1096222.85230999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21657,7 +21035,7 @@
         <v>1097263.41280999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21690,7 +21068,7 @@
         <v>1095143.91050999</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21723,7 +21101,7 @@
         <v>1095992.48840999</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21756,7 +21134,7 @@
         <v>1098257.05720999</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21789,7 +21167,7 @@
         <v>1097384.46170999</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21822,7 +21200,7 @@
         <v>1097616.0095088</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22152,7 +21530,7 @@
         <v>1107127.73691961</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22185,7 +21563,7 @@
         <v>1104776.33392169</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22218,7 +21596,7 @@
         <v>1104750.23062169</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22251,7 +21629,7 @@
         <v>1108820.23462169</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22284,7 +21662,7 @@
         <v>1108820.23462169</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22317,7 +21695,7 @@
         <v>1108465.40642169</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22350,7 +21728,7 @@
         <v>1108584.18822169</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22383,7 +21761,7 @@
         <v>1108584.18822169</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22416,7 +21794,7 @@
         <v>1111714.60552169</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22449,7 +21827,7 @@
         <v>1111606.07162169</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22482,7 +21860,7 @@
         <v>1109600.21082169</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22515,7 +21893,7 @@
         <v>1112936.69642169</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22548,7 +21926,7 @@
         <v>1112494.09332169</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22581,7 +21959,7 @@
         <v>1110090.63802169</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22614,7 +21992,7 @@
         <v>1109145.32962169</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22647,7 +22025,7 @@
         <v>1106948.34052169</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22680,7 +22058,7 @@
         <v>1106489.50808997</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22713,7 +22091,7 @@
         <v>1106033.70178997</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22746,7 +22124,7 @@
         <v>1109293.30818997</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22779,7 +22157,7 @@
         <v>1108601.44498997</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22812,7 +22190,7 @@
         <v>1110394.28848997</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22845,7 +22223,7 @@
         <v>1109069.0148097</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22878,7 +22256,7 @@
         <v>1110056.29995396</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22911,7 +22289,7 @@
         <v>1109976.86095396</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22944,7 +22322,7 @@
         <v>1112824.8749097</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22977,7 +22355,7 @@
         <v>1114194.3483097</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23010,7 +22388,7 @@
         <v>1118976.1820097</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23043,7 +22421,7 @@
         <v>1125074.95319859</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23076,7 +22454,7 @@
         <v>1131400.97949859</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23109,7 +22487,7 @@
         <v>1129790.32459859</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23142,7 +22520,7 @@
         <v>1129790.32459859</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23175,7 +22553,7 @@
         <v>1130085.10117126</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23208,7 +22586,7 @@
         <v>1126245.92787126</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23241,7 +22619,7 @@
         <v>1126245.92787126</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23274,7 +22652,7 @@
         <v>1124164.22597126</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23307,7 +22685,7 @@
         <v>1125847.56507126</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23340,7 +22718,7 @@
         <v>1128327.50417126</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23373,7 +22751,7 @@
         <v>1122380.29347126</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23406,7 +22784,7 @@
         <v>1121030.59836194</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23439,7 +22817,7 @@
         <v>1119297.22426194</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23472,7 +22850,7 @@
         <v>1119297.22426194</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23505,7 +22883,7 @@
         <v>1122611.308661941</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23538,7 +22916,7 @@
         <v>1123029.49346194</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23571,7 +22949,7 @@
         <v>1123029.49346194</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23604,7 +22982,7 @@
         <v>1120918.376761941</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23637,7 +23015,7 @@
         <v>1116685.424624561</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23670,7 +23048,7 @@
         <v>1111979.064624561</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23703,7 +23081,7 @@
         <v>1110488.904224561</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23736,7 +23114,7 @@
         <v>1110488.904224561</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23769,7 +23147,7 @@
         <v>1104611.599724561</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23802,7 +23180,7 @@
         <v>1104261.069924561</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23835,7 +23213,7 @@
         <v>1104907.124824561</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23868,7 +23246,7 @@
         <v>1107108.674724561</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23901,7 +23279,7 @@
         <v>1108013.957124561</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23934,7 +23312,7 @@
         <v>1107448.644550371</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23967,7 +23345,7 @@
         <v>1104237.17215037</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24000,7 +23378,7 @@
         <v>1103063.40275037</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24033,7 +23411,7 @@
         <v>1100049.44935037</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24066,7 +23444,7 @@
         <v>1097900.11435037</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24099,7 +23477,7 @@
         <v>1097826.59029377</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24132,7 +23510,7 @@
         <v>1097826.59029377</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -28851,7 +28229,7 @@
         <v>912684.7247013409</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28917,7 +28295,7 @@
         <v>907171.1624256809</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29346,7 +28724,7 @@
         <v>909778.6177278007</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29940,7 +29318,7 @@
         <v>904965.376644091</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29973,7 +29351,7 @@
         <v>905531.850944091</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30138,7 +29516,7 @@
         <v>885984.7456189009</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30171,7 +29549,7 @@
         <v>887401.5727189009</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30204,7 +29582,7 @@
         <v>887452.8805740809</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30237,7 +29615,7 @@
         <v>887814.3892009609</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30270,7 +29648,7 @@
         <v>887054.0681009609</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30303,7 +29681,7 @@
         <v>895401.3834009609</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30336,7 +29714,7 @@
         <v>910507.484198481</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30369,7 +29747,7 @@
         <v>896910.273945351</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30402,7 +29780,7 @@
         <v>899928.269245351</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30435,7 +29813,7 @@
         <v>901174.890545351</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30468,7 +29846,7 @@
         <v>896117.266545351</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30501,7 +29879,7 @@
         <v>889977.872245351</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30534,7 +29912,7 @@
         <v>889216.8810153709</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30567,7 +29945,7 @@
         <v>892702.8149613909</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30600,7 +29978,7 @@
         <v>890767.519776971</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30633,7 +30011,7 @@
         <v>897061.927576971</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30798,7 +30176,7 @@
         <v>894662.321676971</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30831,7 +30209,7 @@
         <v>898874.279676971</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30864,7 +30242,7 @@
         <v>914200.682461321</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30897,7 +30275,7 @@
         <v>913875.733561321</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30930,7 +30308,7 @@
         <v>914564.2589613211</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30963,7 +30341,7 @@
         <v>913194.4771613211</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30996,7 +30374,7 @@
         <v>910592.7149613211</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31029,7 +30407,7 @@
         <v>909152.5100613211</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31062,7 +30440,7 @@
         <v>918351.7859613211</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31095,7 +30473,7 @@
         <v>912097.4815613211</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31128,7 +30506,7 @@
         <v>914611.9213239511</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31161,7 +30539,7 @@
         <v>915558.0869239511</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31194,7 +30572,7 @@
         <v>914988.4516239511</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31227,7 +30605,7 @@
         <v>911289.7709239511</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31557,7 +30935,7 @@
         <v>903461.987023951</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31590,7 +30968,7 @@
         <v>888297.329223951</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32943,7 +32321,7 @@
         <v>900834.8923942908</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32976,7 +32354,7 @@
         <v>898620.3358942908</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34296,7 +33674,7 @@
         <v>930351.8965476009</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34329,7 +33707,7 @@
         <v>930496.3203280208</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34362,7 +33740,7 @@
         <v>930498.9103280208</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34395,7 +33773,7 @@
         <v>929611.8450280208</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34428,7 +33806,7 @@
         <v>929292.5044280208</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34461,7 +33839,7 @@
         <v>929287.7579280208</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35253,7 +34631,7 @@
         <v>925769.3379080507</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35616,7 +34994,7 @@
         <v>933130.5109080508</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35649,7 +35027,7 @@
         <v>933130.5109080508</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35682,7 +35060,7 @@
         <v>934143.5702854209</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35715,7 +35093,7 @@
         <v>942416.1872080509</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35748,7 +35126,7 @@
         <v>955758.4546080509</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35781,7 +35159,7 @@
         <v>957501.7782080509</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35814,7 +35192,7 @@
         <v>957338.6222080509</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35847,7 +35225,7 @@
         <v>954851.6497080509</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35880,7 +35258,7 @@
         <v>955110.3279080509</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35913,7 +35291,7 @@
         <v>955085.5712080508</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35946,7 +35324,7 @@
         <v>959854.3280080508</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35979,7 +35357,7 @@
         <v>960025.1127080508</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36012,7 +35390,7 @@
         <v>960004.3796080508</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36045,7 +35423,7 @@
         <v>961748.4164080508</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36078,7 +35456,7 @@
         <v>959521.5243080507</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36111,7 +35489,7 @@
         <v>959908.0364080508</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36144,7 +35522,7 @@
         <v>959525.7982080508</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36177,7 +35555,7 @@
         <v>959525.7982080508</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36210,7 +35588,7 @@
         <v>960003.4591080508</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36243,7 +35621,7 @@
         <v>962741.5419080508</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36276,7 +35654,7 @@
         <v>963220.7709080508</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36309,7 +35687,7 @@
         <v>964403.0408080508</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36342,7 +35720,7 @@
         <v>965958.0698080508</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36375,7 +35753,7 @@
         <v>967471.1680080508</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36408,7 +35786,7 @@
         <v>983184.9699080507</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36441,7 +35819,7 @@
         <v>967865.1779868407</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36474,7 +35852,7 @@
         <v>967865.1779868407</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36507,7 +35885,7 @@
         <v>966488.5532868407</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36540,7 +35918,7 @@
         <v>962973.7284556506</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36573,7 +35951,7 @@
         <v>964258.3868556506</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36606,7 +35984,7 @@
         <v>968388.1183080706</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36639,7 +36017,7 @@
         <v>968187.6050080706</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36672,7 +36050,7 @@
         <v>966884.4742080705</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36705,7 +36083,7 @@
         <v>977546.6658080706</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36738,7 +36116,7 @@
         <v>990048.7517080705</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36771,7 +36149,7 @@
         <v>995183.8718452705</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36804,7 +36182,7 @@
         <v>991648.1227265105</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36837,7 +36215,7 @@
         <v>986184.7930265105</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36870,7 +36248,7 @@
         <v>988193.2538005905</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36903,7 +36281,7 @@
         <v>995879.3493552206</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36936,7 +36314,7 @@
         <v>995879.3493552206</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36969,7 +36347,7 @@
         <v>1007840.791586831</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37002,7 +36380,7 @@
         <v>1000767.824486831</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37035,7 +36413,7 @@
         <v>996312.2173868305</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37068,7 +36446,7 @@
         <v>993856.5676868305</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37101,7 +36479,7 @@
         <v>999358.2747868305</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37134,7 +36512,7 @@
         <v>1003389.320086831</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37167,7 +36545,7 @@
         <v>1006441.303086831</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37200,7 +36578,7 @@
         <v>1006441.303086831</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37233,7 +36611,7 @@
         <v>994441.2039868305</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37266,7 +36644,7 @@
         <v>995856.9547868306</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37299,7 +36677,7 @@
         <v>1012768.828886831</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37332,7 +36710,7 @@
         <v>1012334.056286831</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37365,7 +36743,7 @@
         <v>1011526.982331931</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37398,7 +36776,7 @@
         <v>979615.8702319305</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37431,7 +36809,7 @@
         <v>975997.8933319305</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37464,7 +36842,7 @@
         <v>986104.0217319306</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37497,7 +36875,7 @@
         <v>982812.9770319306</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38718,7 +38096,7 @@
         <v>1007280.758442581</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -38751,7 +38129,7 @@
         <v>1013968.166242581</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -38784,7 +38162,7 @@
         <v>1011731.501942581</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -38817,7 +38195,7 @@
         <v>1012150.692942581</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -38850,7 +38228,7 @@
         <v>1014106.645742581</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -38883,7 +38261,7 @@
         <v>1008671.763842581</v>
       </c>
       <c r="H1126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -38982,7 +38360,7 @@
         <v>1012322.424306671</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39180,7 +38558,7 @@
         <v>1019667.461906671</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39213,7 +38591,7 @@
         <v>1024385.590306671</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39246,7 +38624,7 @@
         <v>1022982.241006671</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39345,7 +38723,7 @@
         <v>1023384.598538491</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39378,7 +38756,7 @@
         <v>1024728.381138491</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39510,7 +38888,7 @@
         <v>1021878.572538491</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39543,7 +38921,7 @@
         <v>1020004.263838491</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40170,7 +39548,7 @@
         <v>1027943.183396011</v>
       </c>
       <c r="H1165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40203,7 +39581,7 @@
         <v>1027869.568096011</v>
       </c>
       <c r="H1166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40236,7 +39614,7 @@
         <v>1028974.760596011</v>
       </c>
       <c r="H1167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40269,7 +39647,7 @@
         <v>1027498.223091631</v>
       </c>
       <c r="H1168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40302,7 +39680,7 @@
         <v>1027498.223091631</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40500,7 +39878,7 @@
         <v>1037643.102565491</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -40533,7 +39911,7 @@
         <v>1037657.932896501</v>
       </c>
       <c r="H1176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -40566,7 +39944,7 @@
         <v>1037402.296496501</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40599,7 +39977,7 @@
         <v>1037402.296496501</v>
       </c>
       <c r="H1178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -40632,7 +40010,7 @@
         <v>1034627.946796501</v>
       </c>
       <c r="H1179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -40665,7 +40043,7 @@
         <v>1037052.258396501</v>
       </c>
       <c r="H1180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41292,7 +40670,7 @@
         <v>1046361.329118991</v>
       </c>
       <c r="H1199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41325,7 +40703,7 @@
         <v>1044698.817118991</v>
       </c>
       <c r="H1200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41358,7 +40736,7 @@
         <v>1049300.798618991</v>
       </c>
       <c r="H1201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41391,7 +40769,7 @@
         <v>1047976.930018991</v>
       </c>
       <c r="H1202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41424,7 +40802,7 @@
         <v>1049070.610018991</v>
       </c>
       <c r="H1203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41457,7 +40835,7 @@
         <v>1049140.886733511</v>
       </c>
       <c r="H1204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41490,7 +40868,7 @@
         <v>1048215.451633511</v>
       </c>
       <c r="H1205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41688,7 +41066,7 @@
         <v>1054024.540415571</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -41721,7 +41099,7 @@
         <v>1055042.121079101</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -41754,7 +41132,7 @@
         <v>1054015.853379101</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -41787,7 +41165,7 @@
         <v>1054015.853379101</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -41820,7 +41198,7 @@
         <v>1053541.9497791</v>
       </c>
       <c r="H1215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41853,7 +41231,7 @@
         <v>1053540.9497791</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41886,7 +41264,7 @@
         <v>1053540.9497791</v>
       </c>
       <c r="H1217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -41919,7 +41297,7 @@
         <v>1053662.2285791</v>
       </c>
       <c r="H1218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -41952,7 +41330,7 @@
         <v>1053662.2285791</v>
       </c>
       <c r="H1219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -41985,7 +41363,7 @@
         <v>1055859.534879101</v>
       </c>
       <c r="H1220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42018,7 +41396,7 @@
         <v>1057543.598979101</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42051,7 +41429,7 @@
         <v>1057197.859579101</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42084,7 +41462,7 @@
         <v>1058774.531452131</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42117,7 +41495,7 @@
         <v>1058022.34780922</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42150,7 +41528,7 @@
         <v>1055416.79130922</v>
       </c>
       <c r="H1225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42183,7 +41561,7 @@
         <v>1055496.61874889</v>
       </c>
       <c r="H1226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42216,7 +41594,7 @@
         <v>1047978.78924889</v>
       </c>
       <c r="H1227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -42249,7 +41627,7 @@
         <v>1051022.747948891</v>
       </c>
       <c r="H1228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -42282,7 +41660,7 @@
         <v>1051022.747948891</v>
       </c>
       <c r="H1229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42315,7 +41693,7 @@
         <v>1048159.323048891</v>
       </c>
       <c r="H1230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -42348,7 +41726,7 @@
         <v>1042576.937748891</v>
       </c>
       <c r="H1231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42381,7 +41759,7 @@
         <v>1045495.587646251</v>
       </c>
       <c r="H1232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42414,7 +41792,7 @@
         <v>1045434.849546251</v>
       </c>
       <c r="H1233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42447,7 +41825,7 @@
         <v>1045685.540646251</v>
       </c>
       <c r="H1234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42480,7 +41858,7 @@
         <v>1045761.382344101</v>
       </c>
       <c r="H1235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42513,7 +41891,7 @@
         <v>1035918.131544101</v>
       </c>
       <c r="H1236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42711,7 +42089,7 @@
         <v>1040558.126344101</v>
       </c>
       <c r="H1242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
@@ -42744,7 +42122,7 @@
         <v>1040558.126344101</v>
       </c>
       <c r="H1243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
@@ -42777,7 +42155,7 @@
         <v>1035785.874844101</v>
       </c>
       <c r="H1244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -43272,7 +42650,7 @@
         <v>1045683.756521501</v>
       </c>
       <c r="H1259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -43305,7 +42683,7 @@
         <v>1046464.506572231</v>
       </c>
       <c r="H1260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -43404,7 +42782,7 @@
         <v>1046066.01417223</v>
       </c>
       <c r="H1263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43767,7 +43145,7 @@
         <v>1043354.19436057</v>
       </c>
       <c r="H1274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43800,7 +43178,7 @@
         <v>1043059.75256057</v>
       </c>
       <c r="H1275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43833,7 +43211,7 @@
         <v>1046726.82316057</v>
       </c>
       <c r="H1276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -44163,7 +43541,7 @@
         <v>1056773.810363021</v>
       </c>
       <c r="H1286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -44196,7 +43574,7 @@
         <v>1057629.651463021</v>
       </c>
       <c r="H1287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -44229,7 +43607,7 @@
         <v>1060197.661163021</v>
       </c>
       <c r="H1288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44262,7 +43640,7 @@
         <v>1060404.532063021</v>
       </c>
       <c r="H1289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44295,7 +43673,7 @@
         <v>1061449.723663021</v>
       </c>
       <c r="H1290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44328,7 +43706,7 @@
         <v>1086823.017353701</v>
       </c>
       <c r="H1291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -44361,7 +43739,7 @@
         <v>1070709.292453701</v>
       </c>
       <c r="H1292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44394,7 +43772,7 @@
         <v>1080657.824553701</v>
       </c>
       <c r="H1293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44427,7 +43805,7 @@
         <v>1074875.289031631</v>
       </c>
       <c r="H1294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44460,7 +43838,7 @@
         <v>1067394.049645071</v>
       </c>
       <c r="H1295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44493,7 +43871,7 @@
         <v>1064349.410811971</v>
       </c>
       <c r="H1296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44526,7 +43904,7 @@
         <v>1059837.556025961</v>
       </c>
       <c r="H1297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44559,7 +43937,7 @@
         <v>1060954.551232971</v>
       </c>
       <c r="H1298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44592,7 +43970,7 @@
         <v>1065459.434032971</v>
       </c>
       <c r="H1299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44625,7 +44003,7 @@
         <v>1058396.036623811</v>
       </c>
       <c r="H1300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44658,7 +44036,7 @@
         <v>1052145.336471481</v>
       </c>
       <c r="H1301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44691,7 +44069,7 @@
         <v>1052145.336471481</v>
       </c>
       <c r="H1302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44724,7 +44102,7 @@
         <v>1037867.614471481</v>
       </c>
       <c r="H1303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44757,7 +44135,7 @@
         <v>1033797.932404271</v>
       </c>
       <c r="H1304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44790,7 +44168,7 @@
         <v>1034199.432404271</v>
       </c>
       <c r="H1305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44823,7 +44201,7 @@
         <v>1030959.139504271</v>
       </c>
       <c r="H1306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44856,7 +44234,7 @@
         <v>1024928.938564711</v>
       </c>
       <c r="H1307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44889,7 +44267,7 @@
         <v>1015879.425864711</v>
       </c>
       <c r="H1308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44922,7 +44300,7 @@
         <v>1034764.101064711</v>
       </c>
       <c r="H1309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44955,7 +44333,7 @@
         <v>1027682.961064711</v>
       </c>
       <c r="H1310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44988,7 +44366,7 @@
         <v>1011726.449564711</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -45021,7 +44399,7 @@
         <v>1028069.226764711</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -45054,7 +44432,7 @@
         <v>1031563.687664711</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -45087,7 +44465,7 @@
         <v>1028130.590644951</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -45120,7 +44498,7 @@
         <v>1038394.812398241</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -45153,7 +44531,7 @@
         <v>1040405.948132921</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -45186,7 +44564,7 @@
         <v>1037693.850920031</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -45219,7 +44597,7 @@
         <v>1023799.361620031</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -45252,7 +44630,7 @@
         <v>1028173.179820031</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -45285,7 +44663,7 @@
         <v>1045889.031420031</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -45318,7 +44696,7 @@
         <v>1036810.645120031</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -45351,7 +44729,7 @@
         <v>1036810.645120031</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -45626,6 +45004,6 @@
       <c r="M1330" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest EOS.xlsx
+++ b/BackTest/2020-01-16 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,17 +649,11 @@
         <v>-54986.62183526</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>-60131.83363525999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,17 +715,11 @@
         <v>-48894.12743525999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -774,7 +756,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1156,11 +1138,9 @@
         <v>-68504.57479108998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -2326,11 +2306,9 @@
         <v>-62443.54306669996</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2365,11 +2343,9 @@
         <v>-63622.33576669996</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2482,11 +2458,9 @@
         <v>-54341.98436669996</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2521,11 +2495,9 @@
         <v>-52742.81396669996</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2560,11 +2532,9 @@
         <v>-50062.93362706996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2599,11 +2569,9 @@
         <v>-45279.77542706996</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2638,11 +2606,9 @@
         <v>-36768.27022706996</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -3491,18 +3457,16 @@
         <v>329276.9181793201</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3528,15 +3492,11 @@
         <v>319532.26447932</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3565,15 +3525,11 @@
         <v>317651.54977932</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3562,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3595,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3676,15 +3624,11 @@
         <v>304948.10271785</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3713,15 +3657,11 @@
         <v>314476.48291785</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3750,15 +3690,11 @@
         <v>319630.04301785</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3787,15 +3723,11 @@
         <v>311661.02711785</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3824,15 +3756,11 @@
         <v>311661.02711785</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3861,15 +3789,11 @@
         <v>309863.20511785</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3898,15 +3822,11 @@
         <v>310143.30281785</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3935,15 +3855,11 @@
         <v>318302.73421785</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3972,15 +3888,11 @@
         <v>319669.23541785</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4009,15 +3921,11 @@
         <v>317223.03899163</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4046,15 +3954,11 @@
         <v>361352.57329163</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4083,15 +3987,11 @@
         <v>323304.78029163</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4120,15 +4020,11 @@
         <v>344866.73339187</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4157,15 +4053,11 @@
         <v>344866.73339187</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4194,15 +4086,11 @@
         <v>344866.73339187</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4231,15 +4119,11 @@
         <v>322711.9960141</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4268,15 +4152,11 @@
         <v>337502.8810141</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4305,15 +4185,11 @@
         <v>367419.0574141</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4342,15 +4218,11 @@
         <v>380748.1583141</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4379,15 +4251,11 @@
         <v>401613.49177077</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4416,15 +4284,11 @@
         <v>426883.6821543</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,15 +4317,11 @@
         <v>464691.60266226</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4490,15 +4350,11 @@
         <v>527697.22853687</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4527,15 +4383,11 @@
         <v>602636.23964136</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4564,15 +4416,11 @@
         <v>684015.20804136</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4601,15 +4449,11 @@
         <v>808039.5605631201</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4638,15 +4482,11 @@
         <v>884091.0800670001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4519,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4716,11 +4552,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +4585,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +4618,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4827,11 +4651,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4864,11 +4684,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +4717,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4750,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +4783,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4816,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5049,11 +4849,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +4882,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +4915,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +4948,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5197,11 +4981,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +5014,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +5047,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +5080,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +5113,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5382,11 +5146,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +5179,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5456,11 +5212,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +5245,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +5278,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5311,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5344,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5377,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5678,11 +5410,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +5443,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5476,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +5509,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5826,11 +5542,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5575,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5608,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5937,11 +5641,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5674,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +5707,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6048,11 +5740,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6085,11 +5773,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5806,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6159,11 +5839,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +5872,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6233,11 +5905,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +5938,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +5971,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6004,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6037,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6414,16 +6066,14 @@
         <v>873496.5920465599</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
       <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -6449,7 +6099,7 @@
         <v>939282.6369887199</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6482,7 +6132,7 @@
         <v>910083.10118872</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6515,7 +6165,7 @@
         <v>876475.5992506599</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6548,7 +6198,7 @@
         <v>896407.2704506599</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6581,7 +6231,7 @@
         <v>877706.9431506599</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6614,7 +6264,7 @@
         <v>858080.8194506599</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6647,7 +6297,7 @@
         <v>847576.4166723</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6680,7 +6330,7 @@
         <v>859819.0595722999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6713,7 +6363,7 @@
         <v>864719.9520722999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6746,7 +6396,7 @@
         <v>849051.62556834</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6779,7 +6429,7 @@
         <v>836169.6166646599</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6812,7 +6462,7 @@
         <v>829325.70366466</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -16745,7 +16395,7 @@
         <v>962106.3102550101</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16811,7 +16461,7 @@
         <v>966480.9634550101</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16844,7 +16494,7 @@
         <v>966480.9634550101</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16877,7 +16527,7 @@
         <v>991669.0413217701</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16910,7 +16560,7 @@
         <v>982310.3807406001</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16943,7 +16593,7 @@
         <v>973891.0492406001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16976,7 +16626,7 @@
         <v>983541.2697992001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17009,7 +16659,7 @@
         <v>968590.9817992002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17042,7 +16692,7 @@
         <v>959632.4843606402</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17075,7 +16725,7 @@
         <v>955541.6902606401</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17108,7 +16758,7 @@
         <v>921396.4044606402</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17141,7 +16791,7 @@
         <v>949175.4366606402</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17174,7 +16824,7 @@
         <v>916902.0264606401</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17207,7 +16857,7 @@
         <v>924153.8769606401</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17240,7 +16890,7 @@
         <v>919208.5748606401</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17339,7 +16989,7 @@
         <v>922734.2107606401</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17372,7 +17022,7 @@
         <v>918017.4088687501</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17471,7 +17121,7 @@
         <v>921987.6824687502</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17504,7 +17154,7 @@
         <v>910246.9294068802</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17537,7 +17187,7 @@
         <v>914440.8685526402</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17834,7 +17484,7 @@
         <v>1000324.59040411</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17867,7 +17517,7 @@
         <v>1013954.32082762</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18164,7 +17814,7 @@
         <v>1040314.57291978</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18197,7 +17847,7 @@
         <v>1059523.85292242</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18230,7 +17880,7 @@
         <v>1053528.21772242</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18263,7 +17913,7 @@
         <v>1088688.33440097</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18296,7 +17946,7 @@
         <v>1066198.63700097</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18329,7 +17979,7 @@
         <v>1077432.76420097</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18362,7 +18012,7 @@
         <v>1081009.499334</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18395,7 +18045,7 @@
         <v>1106707.36891648</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18428,7 +18078,7 @@
         <v>1115243.18521648</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18461,7 +18111,7 @@
         <v>1129006.78196824</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18494,7 +18144,7 @@
         <v>1121862.01106824</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18527,7 +18177,7 @@
         <v>1117057.64066824</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18560,7 +18210,7 @@
         <v>1111157.61353589</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18593,7 +18243,7 @@
         <v>1103486.33253589</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18626,7 +18276,7 @@
         <v>1132563.88216391</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18659,7 +18309,7 @@
         <v>1127138.16997837</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18692,7 +18342,7 @@
         <v>1134676.73889521</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18725,7 +18375,7 @@
         <v>1154681.87446433</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18758,7 +18408,7 @@
         <v>1143107.116864331</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18791,7 +18441,7 @@
         <v>1153369.616864331</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18824,7 +18474,7 @@
         <v>1159317.705837161</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18857,7 +18507,7 @@
         <v>1157170.799837161</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19352,7 +19002,7 @@
         <v>987875.1660809006</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19385,7 +19035,7 @@
         <v>1017798.910880901</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19418,7 +19068,7 @@
         <v>1017798.910880901</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19451,7 +19101,7 @@
         <v>1023936.246523271</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19484,7 +19134,7 @@
         <v>1034873.246052591</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19517,7 +19167,7 @@
         <v>1019188.708527931</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19550,7 +19200,7 @@
         <v>1009314.675633241</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19583,7 +19233,7 @@
         <v>1025550.531033241</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19616,7 +19266,7 @@
         <v>1040882.990133241</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19649,7 +19299,7 @@
         <v>1061315.575898941</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19682,7 +19332,7 @@
         <v>1061315.575898941</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19715,7 +19365,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19748,7 +19398,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19781,7 +19431,7 @@
         <v>1063884.998481481</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20474,7 +20124,7 @@
         <v>1104888.41659308</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20507,7 +20157,7 @@
         <v>1104888.41659308</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20738,7 +20388,7 @@
         <v>1095682.15806308</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20771,7 +20421,7 @@
         <v>1091667.47786308</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20804,7 +20454,7 @@
         <v>1099390.41036308</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20837,7 +20487,7 @@
         <v>1088373.80156308</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20870,7 +20520,7 @@
         <v>1088373.80156308</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20903,7 +20553,7 @@
         <v>1088374.80156308</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20936,7 +20586,7 @@
         <v>1091880.44270468</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20969,7 +20619,7 @@
         <v>1096467.75160468</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21002,7 +20652,7 @@
         <v>1096222.85230999</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21035,7 +20685,7 @@
         <v>1097263.41280999</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21068,7 +20718,7 @@
         <v>1095143.91050999</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -38723,7 +38373,7 @@
         <v>1023384.598538491</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38756,7 +38406,7 @@
         <v>1024728.381138491</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -44300,7 +43950,7 @@
         <v>1034764.101064711</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44333,7 +43983,7 @@
         <v>1027682.961064711</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44366,7 +44016,7 @@
         <v>1011726.449564711</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44399,7 +44049,7 @@
         <v>1028069.226764711</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44432,7 +44082,7 @@
         <v>1031563.687664711</v>
       </c>
       <c r="H1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44465,7 +44115,7 @@
         <v>1028130.590644951</v>
       </c>
       <c r="H1314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -44498,7 +44148,7 @@
         <v>1038394.812398241</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -44531,7 +44181,7 @@
         <v>1040405.948132921</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -44564,7 +44214,7 @@
         <v>1037693.850920031</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -44597,7 +44247,7 @@
         <v>1023799.361620031</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -44630,7 +44280,7 @@
         <v>1028173.179820031</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -44663,7 +44313,7 @@
         <v>1045889.031420031</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -44696,7 +44346,7 @@
         <v>1036810.645120031</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -44729,7 +44379,7 @@
         <v>1036810.645120031</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -45004,6 +44654,6 @@
       <c r="M1330" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest EOS.xlsx
+++ b/BackTest/2020-01-16 BackTest EOS.xlsx
@@ -748,17 +748,11 @@
         <v>-60070.45623525999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -787,17 +781,11 @@
         <v>-98638.25133525999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3658</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,17 +814,11 @@
         <v>-86030.94282778999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,17 +847,11 @@
         <v>-82699.12682778998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -912,7 +888,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1138,9 +1114,11 @@
         <v>-68504.57479108998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3717</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -2306,9 +2284,11 @@
         <v>-62443.54306669996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3720</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2343,9 +2323,11 @@
         <v>-63622.33576669996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3719</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2458,9 +2440,11 @@
         <v>-54341.98436669996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3734</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2495,9 +2479,11 @@
         <v>-52742.81396669996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3743</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3457,16 +3443,18 @@
         <v>329276.9181793201</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3492,11 +3480,15 @@
         <v>319532.26447932</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3525,11 +3517,15 @@
         <v>317651.54977932</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3562,7 +3558,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3595,7 +3595,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3624,11 +3628,15 @@
         <v>304948.10271785</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3657,11 +3665,15 @@
         <v>314476.48291785</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3702,15 @@
         <v>319630.04301785</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3739,15 @@
         <v>311661.02711785</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3776,15 @@
         <v>311661.02711785</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3813,15 @@
         <v>309863.20511785</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3850,15 @@
         <v>310143.30281785</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3887,15 @@
         <v>318302.73421785</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +3924,15 @@
         <v>319669.23541785</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +3961,15 @@
         <v>317223.03899163</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +3998,15 @@
         <v>361352.57329163</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4035,15 @@
         <v>323304.78029163</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +4072,15 @@
         <v>344866.73339187</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4053,11 +4109,15 @@
         <v>344866.73339187</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4086,11 +4146,15 @@
         <v>344866.73339187</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +4183,15 @@
         <v>322711.9960141</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +4220,15 @@
         <v>337502.8810141</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4257,15 @@
         <v>367419.0574141</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4294,15 @@
         <v>380748.1583141</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4251,11 +4331,15 @@
         <v>401613.49177077</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4368,15 @@
         <v>426883.6821543</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4405,15 @@
         <v>464691.60266226</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4442,15 @@
         <v>527697.22853687</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4479,15 @@
         <v>602636.23964136</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +4516,15 @@
         <v>684015.20804136</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4553,15 @@
         <v>808039.5605631201</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4590,15 @@
         <v>884091.0800670001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4519,7 +4631,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4552,7 +4668,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4705,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4618,7 +4742,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4651,7 +4779,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4684,7 +4816,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4717,7 +4853,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4750,7 +4890,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4783,7 +4927,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4816,7 +4964,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4849,7 +5001,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4882,7 +5038,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +5071,16 @@
         <v>982258.4715451902</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4944,7 +5106,7 @@
         <v>1008202.73314519</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4977,7 +5139,7 @@
         <v>976975.7019451902</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5010,7 +5172,7 @@
         <v>963675.1751451902</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5043,7 +5205,7 @@
         <v>911894.5621925602</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5076,7 +5238,7 @@
         <v>944237.8758498601</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5109,7 +5271,7 @@
         <v>911980.9939095401</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5142,7 +5304,7 @@
         <v>949196.8779095401</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5175,7 +5337,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5208,7 +5370,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5241,7 +5403,7 @@
         <v>981943.2742082401</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5274,7 +5436,7 @@
         <v>971879.2952352001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5307,7 +5469,7 @@
         <v>982578.4715252301</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5340,7 +5502,7 @@
         <v>1009425.64813826</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5373,7 +5535,7 @@
         <v>993999.6992542502</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5406,7 +5568,7 @@
         <v>997099.8807542501</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5439,7 +5601,7 @@
         <v>972973.7353542501</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5472,7 +5634,7 @@
         <v>996697.5784444801</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5505,7 +5667,7 @@
         <v>984275.5066787101</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5538,7 +5700,7 @@
         <v>992898.4008787101</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5571,7 +5733,7 @@
         <v>989645.44147871</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5604,7 +5766,7 @@
         <v>980729.51337871</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5637,7 +5799,7 @@
         <v>984390.65217871</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5670,7 +5832,7 @@
         <v>982008.28937871</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5703,7 +5865,7 @@
         <v>977785.2774787099</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5736,7 +5898,7 @@
         <v>983111.3356787099</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
